--- a/lineups.xlsx
+++ b/lineups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Víctor\Desktop\IronHack\Apuntes\Futbol_Predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7452232F-EDBC-4615-8C69-200757E7B649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5730EE1-E145-4A30-B9F9-F78DA40F2FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8565" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/lineups.xlsx
+++ b/lineups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Víctor\Desktop\IronHack\Apuntes\Futbol_Predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5730EE1-E145-4A30-B9F9-F78DA40F2FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4298677A-9E2B-40AC-BC6C-B94EB548BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/lineups.xlsx
+++ b/lineups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Víctor\Desktop\IronHack\Apuntes\Futbol_Predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4298677A-9E2B-40AC-BC6C-B94EB548BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A765D6C-3989-4478-88BA-4E963F7F8FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
